--- a/Images/data_eo.xlsx
+++ b/Images/data_eo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/zcftaeu_ucl_ac_uk/Documents/Documents/University/YearM_T2/CASA0023/GroupPresentation/desert-roses/Images/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaun\Documents\CASA\Portfolio\desert-roses\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{E081BB90-178A-4ADB-A15E-0832B53FC19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A67DD23-DCAD-4F66-B0BE-B741E9D1E214}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC1C0B7-8F57-4040-BC33-E3B221F91B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{9FC9B43F-F867-4683-A08A-E0DDCD3D78E4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{9FC9B43F-F867-4683-A08A-E0DDCD3D78E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>EO Data</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Data Range</t>
   </si>
   <si>
-    <t>Cost</t>
-  </si>
-  <si>
     <t>Processing</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
     <t>16 days</t>
   </si>
   <si>
-    <t>Free</t>
-  </si>
-  <si>
     <t>Vegetation</t>
   </si>
   <si>
@@ -96,25 +90,27 @@
   </si>
   <si>
     <t>(Un)supervised classification</t>
-  </si>
-  <si>
-    <t>250m (Band 1-2); 500m (Band 3-7); 1000m (Band6-36)</t>
-  </si>
-  <si>
-    <t>Landsat 5, 1984-2013; 
-Landsat 7 ETM+, 1999-present* (Scan Line Corrector (SLC) failure from May 2003 and some periods of inactivity in 2024); 
-Landsat 8, 2013-present</t>
-  </si>
-  <si>
-    <t>Common, 30m (Visible, NIR, SWIR); 
-Landsat 5, 120m (Thermal); 
-Landsat 7, 60m (Panchromatic), 120m (Thermal); 
-Landsat 8, 15m (Panchromatic), 100m (Thermal)</t>
   </si>
   <si>
     <t>Landsat 5; 
 Landsat 7 ETM+; 
 Landsat 8</t>
+  </si>
+  <si>
+    <t>Landsat 5-7-8, 30m (Visible, NIR, SWIR); 
+Landsat 5, 120m (Thermal); 
+Landsat 7, 60m (Panchrom.), 120m (Thermal); 
+Landsat 8, 15m (Panchrom.), 100m (Thermal)</t>
+  </si>
+  <si>
+    <t>Landsat 5, 1984-2013; 
+Landsat 7 ETM+, 1999-present (Scan Line Corrector failure from May 2003); 
+Landsat 8, 2013-present</t>
+  </si>
+  <si>
+    <t>250m (Band 1-2); 
+500m (Band 3-7); 
+1000m (Band 6-36)</t>
   </si>
 </sst>
 </file>
@@ -489,26 +485,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03DA8CD-7C18-40C4-B626-8517A0867A2A}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.46875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.52734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.64453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.87890625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.41015625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.46875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.46875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -525,100 +520,85 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="86" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="86" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
+    <row r="3" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="86" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="86" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
